--- a/logs/2024/The Shortest History of India_ From the World’s Oldest Civilization to Its Largest Democracy - John Zubrzycki.xlsx
+++ b/logs/2024/The Shortest History of India_ From the World’s Oldest Civilization to Its Largest Democracy - John Zubrzycki.xlsx
@@ -430,7 +430,7 @@
         <v>45341</v>
       </c>
       <c r="B1" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
@@ -438,7 +438,7 @@
         <v>45343</v>
       </c>
       <c r="B2" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -446,7 +446,7 @@
         <v>45344</v>
       </c>
       <c r="B3" t="n">
-        <v>55</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4">
@@ -454,7 +454,7 @@
         <v>45345</v>
       </c>
       <c r="B4" t="n">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
@@ -462,7 +462,7 @@
         <v>45347</v>
       </c>
       <c r="B5" t="n">
-        <v>76</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
@@ -470,7 +470,7 @@
         <v>45354</v>
       </c>
       <c r="B6" t="n">
-        <v>94</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
@@ -478,7 +478,7 @@
         <v>45355</v>
       </c>
       <c r="B7" t="n">
-        <v>109</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
@@ -486,7 +486,7 @@
         <v>45358</v>
       </c>
       <c r="B8" t="n">
-        <v>154</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9">
@@ -494,7 +494,7 @@
         <v>45360</v>
       </c>
       <c r="B9" t="n">
-        <v>175</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
